--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fn1-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fn1-Itga2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H2">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I2">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J2">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.625574666666667</v>
+        <v>3.339352</v>
       </c>
       <c r="N2">
-        <v>7.876724</v>
+        <v>10.018056</v>
       </c>
       <c r="O2">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="P2">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="Q2">
-        <v>52.02660570465955</v>
+        <v>109.9965796384133</v>
       </c>
       <c r="R2">
-        <v>468.239451341936</v>
+        <v>989.9692167457201</v>
       </c>
       <c r="S2">
-        <v>0.01340267048224237</v>
+        <v>0.01557234122591343</v>
       </c>
       <c r="T2">
-        <v>0.01340267048224237</v>
+        <v>0.01557234122591343</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H3">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I3">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J3">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>4.204062</v>
       </c>
       <c r="O3">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="P3">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="Q3">
-        <v>27.76827981175201</v>
+        <v>46.15989774741001</v>
       </c>
       <c r="R3">
-        <v>249.914518305768</v>
+        <v>415.43907972669</v>
       </c>
       <c r="S3">
-        <v>0.007153438113728099</v>
+        <v>0.006534909367535586</v>
       </c>
       <c r="T3">
-        <v>0.007153438113728098</v>
+        <v>0.006534909367535584</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H4">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I4">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J4">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.066056</v>
+        <v>0.1338136666666667</v>
       </c>
       <c r="N4">
-        <v>0.198168</v>
+        <v>0.401441</v>
       </c>
       <c r="O4">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787613</v>
       </c>
       <c r="P4">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787612</v>
       </c>
       <c r="Q4">
-        <v>1.308920865994667</v>
+        <v>4.40775505014389</v>
       </c>
       <c r="R4">
-        <v>11.780287793952</v>
+        <v>39.669795451295</v>
       </c>
       <c r="S4">
-        <v>0.0003371935342821466</v>
+        <v>0.0006240109093093425</v>
       </c>
       <c r="T4">
-        <v>0.0003371935342821465</v>
+        <v>0.0006240109093093424</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H5">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I5">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J5">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.704398</v>
+        <v>0.6405483333333334</v>
       </c>
       <c r="N5">
-        <v>2.113194</v>
+        <v>1.921645</v>
       </c>
       <c r="O5">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="P5">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="Q5">
-        <v>13.95787271655733</v>
+        <v>21.09934075825278</v>
       </c>
       <c r="R5">
-        <v>125.620854449016</v>
+        <v>189.894066824275</v>
       </c>
       <c r="S5">
-        <v>0.003595713503107598</v>
+        <v>0.002987057734062419</v>
       </c>
       <c r="T5">
-        <v>0.003595713503107598</v>
+        <v>0.002987057734062418</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I6">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J6">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.625574666666667</v>
+        <v>3.339352</v>
       </c>
       <c r="N6">
-        <v>7.876724</v>
+        <v>10.018056</v>
       </c>
       <c r="O6">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="P6">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="Q6">
-        <v>1392.341065099925</v>
+        <v>1770.856864004717</v>
       </c>
       <c r="R6">
-        <v>12531.06958589932</v>
+        <v>15937.71177604246</v>
       </c>
       <c r="S6">
-        <v>0.3586835666420837</v>
+        <v>0.2507022258254122</v>
       </c>
       <c r="T6">
-        <v>0.3586835666420837</v>
+        <v>0.2507022258254122</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I7">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J7">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -877,10 +877,10 @@
         <v>4.204062</v>
       </c>
       <c r="O7">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="P7">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="Q7">
         <v>743.137396057818</v>
@@ -889,10 +889,10 @@
         <v>6688.236564520363</v>
       </c>
       <c r="S7">
-        <v>0.191441004222625</v>
+        <v>0.1052068086770561</v>
       </c>
       <c r="T7">
-        <v>0.191441004222625</v>
+        <v>0.1052068086770561</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>1590.898651</v>
       </c>
       <c r="I8">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J8">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.066056</v>
+        <v>0.1338136666666667</v>
       </c>
       <c r="N8">
-        <v>0.198168</v>
+        <v>0.401441</v>
       </c>
       <c r="O8">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787613</v>
       </c>
       <c r="P8">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787612</v>
       </c>
       <c r="Q8">
-        <v>35.02946709681866</v>
+        <v>70.9613272617879</v>
       </c>
       <c r="R8">
-        <v>315.265203871368</v>
+        <v>638.6519453560911</v>
       </c>
       <c r="S8">
-        <v>0.009024006050526646</v>
+        <v>0.01004607602888018</v>
       </c>
       <c r="T8">
-        <v>0.009024006050526645</v>
+        <v>0.01004607602888018</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I9">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J9">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.704398</v>
+        <v>0.6405483333333334</v>
       </c>
       <c r="N9">
-        <v>2.113194</v>
+        <v>1.921645</v>
       </c>
       <c r="O9">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="P9">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="Q9">
-        <v>373.5419426556993</v>
+        <v>339.6824931334328</v>
       </c>
       <c r="R9">
-        <v>3361.877483901294</v>
+        <v>3057.142438200895</v>
       </c>
       <c r="S9">
-        <v>0.09622883332292098</v>
+        <v>0.04808923794659105</v>
       </c>
       <c r="T9">
-        <v>0.09622883332292098</v>
+        <v>0.04808923794659105</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H10">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I10">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J10">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.625574666666667</v>
+        <v>3.339352</v>
       </c>
       <c r="N10">
-        <v>7.876724</v>
+        <v>10.018056</v>
       </c>
       <c r="O10">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="P10">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="Q10">
-        <v>299.7229084179618</v>
+        <v>1409.810286597309</v>
       </c>
       <c r="R10">
-        <v>2697.506175761656</v>
+        <v>12688.29257937579</v>
       </c>
       <c r="S10">
-        <v>0.07721217486893395</v>
+        <v>0.199588450103309</v>
       </c>
       <c r="T10">
-        <v>0.07721217486893395</v>
+        <v>0.1995884501033089</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H11">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I11">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J11">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1125,22 +1125,22 @@
         <v>4.204062</v>
       </c>
       <c r="O11">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="P11">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="Q11">
-        <v>159.971796626292</v>
+        <v>591.6247476649021</v>
       </c>
       <c r="R11">
-        <v>1439.746169636628</v>
+        <v>5324.622728984118</v>
       </c>
       <c r="S11">
-        <v>0.04121063151429964</v>
+        <v>0.08375699025022594</v>
       </c>
       <c r="T11">
-        <v>0.04121063151429963</v>
+        <v>0.0837569902502259</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H12">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I12">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J12">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.066056</v>
+        <v>0.1338136666666667</v>
       </c>
       <c r="N12">
-        <v>0.198168</v>
+        <v>0.401441</v>
       </c>
       <c r="O12">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787613</v>
       </c>
       <c r="P12">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787612</v>
       </c>
       <c r="Q12">
-        <v>7.540633557221335</v>
+        <v>56.49356035361657</v>
       </c>
       <c r="R12">
-        <v>67.86570201499201</v>
+        <v>508.4420431825491</v>
       </c>
       <c r="S12">
-        <v>0.001942556609756404</v>
+        <v>0.007997857767806696</v>
       </c>
       <c r="T12">
-        <v>0.001942556609756404</v>
+        <v>0.007997857767806692</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H13">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I13">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J13">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.704398</v>
+        <v>0.6405483333333334</v>
       </c>
       <c r="N13">
-        <v>2.113194</v>
+        <v>1.921645</v>
       </c>
       <c r="O13">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="P13">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="Q13">
-        <v>80.41066968087067</v>
+        <v>270.4272054566561</v>
       </c>
       <c r="R13">
-        <v>723.696027127836</v>
+        <v>2433.844849109905</v>
       </c>
       <c r="S13">
-        <v>0.02071474189777146</v>
+        <v>0.03828468788742778</v>
       </c>
       <c r="T13">
-        <v>0.02071474189777146</v>
+        <v>0.03828468788742777</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H14">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I14">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J14">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.625574666666667</v>
+        <v>3.339352</v>
       </c>
       <c r="N14">
-        <v>7.876724</v>
+        <v>10.018056</v>
       </c>
       <c r="O14">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="P14">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="Q14">
-        <v>147.900474629048</v>
+        <v>55.130243756928</v>
       </c>
       <c r="R14">
-        <v>1331.104271661432</v>
+        <v>496.1721938123521</v>
       </c>
       <c r="S14">
-        <v>0.03810091584434932</v>
+        <v>0.007804851482407877</v>
       </c>
       <c r="T14">
-        <v>0.03810091584434933</v>
+        <v>0.007804851482407877</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H15">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I15">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J15">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>4.204062</v>
       </c>
       <c r="O15">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="P15">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="Q15">
-        <v>78.93926017592401</v>
+        <v>23.135323143456</v>
       </c>
       <c r="R15">
-        <v>710.453341583316</v>
+        <v>208.217908291104</v>
       </c>
       <c r="S15">
-        <v>0.02033568936355101</v>
+        <v>0.003275294082288483</v>
       </c>
       <c r="T15">
-        <v>0.02033568936355101</v>
+        <v>0.003275294082288482</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H16">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I16">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J16">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.066056</v>
+        <v>0.1338136666666667</v>
       </c>
       <c r="N16">
-        <v>0.198168</v>
+        <v>0.401441</v>
       </c>
       <c r="O16">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787613</v>
       </c>
       <c r="P16">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787612</v>
       </c>
       <c r="Q16">
-        <v>3.720981115536</v>
+        <v>2.209165149808</v>
       </c>
       <c r="R16">
-        <v>33.488830039824</v>
+        <v>19.882486348272</v>
       </c>
       <c r="S16">
-        <v>0.0009585688531225695</v>
+        <v>0.0003127540297188697</v>
       </c>
       <c r="T16">
-        <v>0.0009585688531225696</v>
+        <v>0.0003127540297188697</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H17">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I17">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J17">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.704398</v>
+        <v>0.6405483333333334</v>
       </c>
       <c r="N17">
-        <v>2.113194</v>
+        <v>1.921645</v>
       </c>
       <c r="O17">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="P17">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="Q17">
-        <v>39.67923664498799</v>
+        <v>10.57498153976</v>
       </c>
       <c r="R17">
-        <v>357.113129804892</v>
+        <v>95.17483385784</v>
       </c>
       <c r="S17">
-        <v>0.01022184181606261</v>
+        <v>0.001497112196908431</v>
       </c>
       <c r="T17">
-        <v>0.01022184181606261</v>
+        <v>0.00149711219690843</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H18">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I18">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J18">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.625574666666667</v>
+        <v>3.339352</v>
       </c>
       <c r="N18">
-        <v>7.876724</v>
+        <v>10.018056</v>
       </c>
       <c r="O18">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="P18">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="Q18">
-        <v>121.3556950759675</v>
+        <v>149.0050307964667</v>
       </c>
       <c r="R18">
-        <v>1092.201255683708</v>
+        <v>1341.0452771682</v>
       </c>
       <c r="S18">
-        <v>0.0312626659036687</v>
+        <v>0.02109481214386776</v>
       </c>
       <c r="T18">
-        <v>0.0312626659036687</v>
+        <v>0.02109481214386776</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H19">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I19">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J19">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1621,22 +1621,22 @@
         <v>4.204062</v>
       </c>
       <c r="O19">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="P19">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="Q19">
-        <v>64.77145398930601</v>
+        <v>62.52973508835</v>
       </c>
       <c r="R19">
-        <v>582.9430859037541</v>
+        <v>562.76761579515</v>
       </c>
       <c r="S19">
-        <v>0.01668589450948254</v>
+        <v>0.008852405909007993</v>
       </c>
       <c r="T19">
-        <v>0.01668589450948253</v>
+        <v>0.008852405909007991</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H20">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I20">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J20">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.066056</v>
+        <v>0.1338136666666667</v>
       </c>
       <c r="N20">
-        <v>0.198168</v>
+        <v>0.401441</v>
       </c>
       <c r="O20">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787613</v>
       </c>
       <c r="P20">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787612</v>
       </c>
       <c r="Q20">
-        <v>3.053149428850667</v>
+        <v>5.970891814536111</v>
       </c>
       <c r="R20">
-        <v>27.478344859656</v>
+        <v>53.738026330825</v>
       </c>
       <c r="S20">
-        <v>0.0007865274924953854</v>
+        <v>0.0008453059637365189</v>
       </c>
       <c r="T20">
-        <v>0.0007865274924953853</v>
+        <v>0.0008453059637365188</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H21">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I21">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J21">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.704398</v>
+        <v>0.6405483333333334</v>
       </c>
       <c r="N21">
-        <v>2.113194</v>
+        <v>1.921645</v>
       </c>
       <c r="O21">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="P21">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="Q21">
-        <v>32.55771393035533</v>
+        <v>28.58186981634722</v>
       </c>
       <c r="R21">
-        <v>293.019425373198</v>
+        <v>257.236828347125</v>
       </c>
       <c r="S21">
-        <v>0.008387253128538882</v>
+        <v>0.004046367906328609</v>
       </c>
       <c r="T21">
-        <v>0.008387253128538882</v>
+        <v>0.004046367906328608</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H22">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I22">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J22">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.625574666666667</v>
+        <v>3.339352</v>
       </c>
       <c r="N22">
-        <v>7.876724</v>
+        <v>10.018056</v>
       </c>
       <c r="O22">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="P22">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="Q22">
-        <v>111.1406736614542</v>
+        <v>782.1748761793759</v>
       </c>
       <c r="R22">
-        <v>1000.266062953088</v>
+        <v>7039.573885614384</v>
       </c>
       <c r="S22">
-        <v>0.0286311552730317</v>
+        <v>0.1107333892584801</v>
       </c>
       <c r="T22">
-        <v>0.0286311552730317</v>
+        <v>0.1107333892584801</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H23">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I23">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J23">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>4.204062</v>
       </c>
       <c r="O23">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="P23">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="Q23">
-        <v>59.31936713721601</v>
+        <v>328.238499994452</v>
       </c>
       <c r="R23">
-        <v>533.874304234944</v>
+        <v>2954.146499950068</v>
       </c>
       <c r="S23">
-        <v>0.01528137229379273</v>
+        <v>0.04646909878650952</v>
       </c>
       <c r="T23">
-        <v>0.01528137229379272</v>
+        <v>0.04646909878650951</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H24">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I24">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J24">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.066056</v>
+        <v>0.1338136666666667</v>
       </c>
       <c r="N24">
-        <v>0.198168</v>
+        <v>0.401441</v>
       </c>
       <c r="O24">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787613</v>
       </c>
       <c r="P24">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787612</v>
       </c>
       <c r="Q24">
-        <v>2.796152946090666</v>
+        <v>31.34311332141933</v>
       </c>
       <c r="R24">
-        <v>25.165376514816</v>
+        <v>282.088019892774</v>
       </c>
       <c r="S24">
-        <v>0.0007203221514612098</v>
+        <v>0.004437280298424516</v>
       </c>
       <c r="T24">
-        <v>0.0007203221514612098</v>
+        <v>0.004437280298424515</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H25">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I25">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J25">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.704398</v>
+        <v>0.6405483333333334</v>
       </c>
       <c r="N25">
-        <v>2.113194</v>
+        <v>1.921645</v>
       </c>
       <c r="O25">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="P25">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="Q25">
-        <v>29.81719363752533</v>
+        <v>150.0353401833366</v>
       </c>
       <c r="R25">
-        <v>268.354742737728</v>
+        <v>1350.31806165003</v>
       </c>
       <c r="S25">
-        <v>0.007681262608165393</v>
+        <v>0.02124067421879175</v>
       </c>
       <c r="T25">
-        <v>0.007681262608165393</v>
+        <v>0.02124067421879175</v>
       </c>
     </row>
   </sheetData>
